--- a/files/synthetic/invoice_synth_0.xlsx
+++ b/files/synthetic/invoice_synth_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,42 +424,49 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Client Name: John Smith</t>
+          <t>Date: 10/17/2024</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PO Number: 6163</t>
+          <t>Due Date: 12/15/2024</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Invoice Number: 4442</t>
+          <t>PO Number: 8881</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Date: 06/03/2024</t>
+          <t>Payment Terms: 1295</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Amount Due: $4727.4</t>
+          <t>Amount Due: $1344.7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Due Date: 10/22/2024</t>
+          <t>Invoice Number: 3788</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Client Name: John Smith</t>
         </is>
       </c>
     </row>
